--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1131126666666667</v>
+        <v>0.015803</v>
       </c>
       <c r="H2">
-        <v>0.339338</v>
+        <v>0.047409</v>
       </c>
       <c r="I2">
-        <v>0.07588466286204985</v>
+        <v>0.01134232460594699</v>
       </c>
       <c r="J2">
-        <v>0.07588466286204985</v>
+        <v>0.01134232460594699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N2">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q2">
-        <v>0.006887958132444445</v>
+        <v>0.004640814333333334</v>
       </c>
       <c r="R2">
-        <v>0.061991623192</v>
+        <v>0.041767329</v>
       </c>
       <c r="S2">
-        <v>0.0001444534094091711</v>
+        <v>0.0001033719084606573</v>
       </c>
       <c r="T2">
-        <v>0.0001444534094091711</v>
+        <v>0.0001033719084606573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1131126666666667</v>
+        <v>0.015803</v>
       </c>
       <c r="H3">
-        <v>0.339338</v>
+        <v>0.047409</v>
       </c>
       <c r="I3">
-        <v>0.07588466286204985</v>
+        <v>0.01134232460594699</v>
       </c>
       <c r="J3">
-        <v>0.07588466286204985</v>
+        <v>0.01134232460594699</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P3">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q3">
-        <v>3.172394384724667</v>
+        <v>0.443216042369</v>
       </c>
       <c r="R3">
-        <v>28.551549462522</v>
+        <v>3.988944381321</v>
       </c>
       <c r="S3">
-        <v>0.06653106422140175</v>
+        <v>0.009872424292215756</v>
       </c>
       <c r="T3">
-        <v>0.06653106422140175</v>
+        <v>0.009872424292215756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1131126666666667</v>
+        <v>0.015803</v>
       </c>
       <c r="H4">
-        <v>0.339338</v>
+        <v>0.047409</v>
       </c>
       <c r="I4">
-        <v>0.07588466286204985</v>
+        <v>0.01134232460594699</v>
       </c>
       <c r="J4">
-        <v>0.07588466286204985</v>
+        <v>0.01134232460594699</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q4">
-        <v>0.4391187930268889</v>
+        <v>0.06134940047566667</v>
       </c>
       <c r="R4">
-        <v>3.952069137242</v>
+        <v>0.552144604281</v>
       </c>
       <c r="S4">
-        <v>0.009209145231238943</v>
+        <v>0.001366528405270573</v>
       </c>
       <c r="T4">
-        <v>0.009209145231238943</v>
+        <v>0.001366528405270573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.498761</v>
       </c>
       <c r="I5">
-        <v>0.7824125176664222</v>
+        <v>0.8370580054552444</v>
       </c>
       <c r="J5">
-        <v>0.7824125176664222</v>
+        <v>0.8370580054552444</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N5">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q5">
-        <v>0.07101862828044445</v>
+        <v>0.3424898267777778</v>
       </c>
       <c r="R5">
-        <v>0.6391676545239999</v>
+        <v>3.082408441</v>
       </c>
       <c r="S5">
-        <v>0.001489393923338503</v>
+        <v>0.007628796258468175</v>
       </c>
       <c r="T5">
-        <v>0.001489393923338503</v>
+        <v>0.007628796258468175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.498761</v>
       </c>
       <c r="I6">
-        <v>0.7824125176664222</v>
+        <v>0.8370580054552444</v>
       </c>
       <c r="J6">
-        <v>0.7824125176664222</v>
+        <v>0.8370580054552444</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P6">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q6">
         <v>32.70912703526767</v>
@@ -818,10 +818,10 @@
         <v>294.382143317409</v>
       </c>
       <c r="S6">
-        <v>0.6859717826660608</v>
+        <v>0.7285800816101814</v>
       </c>
       <c r="T6">
-        <v>0.6859717826660607</v>
+        <v>0.7285800816101814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.498761</v>
       </c>
       <c r="I7">
-        <v>0.7824125176664222</v>
+        <v>0.8370580054552444</v>
       </c>
       <c r="J7">
-        <v>0.7824125176664222</v>
+        <v>0.8370580054552444</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q7">
         <v>4.52755573324989</v>
@@ -880,10 +880,10 @@
         <v>40.748001599249</v>
       </c>
       <c r="S7">
-        <v>0.09495134107702288</v>
+        <v>0.1008491275865949</v>
       </c>
       <c r="T7">
-        <v>0.09495134107702288</v>
+        <v>0.1008491275865949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.633661</v>
       </c>
       <c r="I8">
-        <v>0.141702819471528</v>
+        <v>0.1515996699388085</v>
       </c>
       <c r="J8">
-        <v>0.141702819471528</v>
+        <v>0.1515996699388085</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N8">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q8">
-        <v>0.01286219179155555</v>
+        <v>0.06202837122222223</v>
       </c>
       <c r="R8">
-        <v>0.115759726124</v>
+        <v>0.5582553410000001</v>
       </c>
       <c r="S8">
-        <v>0.0002697443017275541</v>
+        <v>0.001381652152272534</v>
       </c>
       <c r="T8">
-        <v>0.0002697443017275541</v>
+        <v>0.001381652152272534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.633661</v>
       </c>
       <c r="I9">
-        <v>0.141702819471528</v>
+        <v>0.1515996699388085</v>
       </c>
       <c r="J9">
-        <v>0.141702819471528</v>
+        <v>0.1515996699388085</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.138969</v>
       </c>
       <c r="O9">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P9">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q9">
         <v>5.923953692834334</v>
@@ -1004,10 +1004,10 @@
         <v>53.315583235509</v>
       </c>
       <c r="S9">
-        <v>0.1242364270597388</v>
+        <v>0.1319532208953939</v>
       </c>
       <c r="T9">
-        <v>0.1242364270597388</v>
+        <v>0.1319532208953939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.633661</v>
       </c>
       <c r="I10">
-        <v>0.141702819471528</v>
+        <v>0.1515996699388085</v>
       </c>
       <c r="J10">
-        <v>0.141702819471528</v>
+        <v>0.1515996699388085</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.646409</v>
       </c>
       <c r="O10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q10">
         <v>0.8199861303721112</v>
@@ -1066,10 +1066,10 @@
         <v>7.379875173349</v>
       </c>
       <c r="S10">
-        <v>0.01719664811006165</v>
+        <v>0.01826479689114212</v>
       </c>
       <c r="T10">
-        <v>0.01719664811006165</v>
+        <v>0.01826479689114212</v>
       </c>
     </row>
   </sheetData>
